--- a/TestCase/Feed/KG__ERP__IntegrationTestCase__Sales & Distribution__2020-02-23__v1.0.0.xlsx
+++ b/TestCase/Feed/KG__ERP__IntegrationTestCase__Sales & Distribution__2020-02-23__v1.0.0.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="161">
   <si>
     <t>General Guidelines</t>
   </si>
@@ -549,6 +549,36 @@
   </si>
   <si>
     <t>15. RM Receive for Opening</t>
+  </si>
+  <si>
+    <t>Product Receive Date, Store Name</t>
+  </si>
+  <si>
+    <t>Requisition Date, Description</t>
+  </si>
+  <si>
+    <t>ITC008</t>
+  </si>
+  <si>
+    <t>ITC009</t>
+  </si>
+  <si>
+    <t>ITC010</t>
+  </si>
+  <si>
+    <t>ITC011</t>
+  </si>
+  <si>
+    <t>ITC012</t>
+  </si>
+  <si>
+    <t>ITC013</t>
+  </si>
+  <si>
+    <t>ITC014</t>
+  </si>
+  <si>
+    <t>ITC015</t>
   </si>
 </sst>
 </file>
@@ -735,7 +765,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF333333"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
@@ -970,7 +999,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1204,9 +1233,6 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1238,7 +1264,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1292,6 +1317,13 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2073,8 +2105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="G10" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,10 +2166,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="113" t="s">
+      <c r="D4" s="123" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="113"/>
+      <c r="E4" s="123"/>
       <c r="F4" s="4"/>
       <c r="H4" s="9"/>
       <c r="I4" s="32"/>
@@ -2151,7 +2183,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="124" t="s">
         <v>104</v>
       </c>
       <c r="E5" s="9"/>
@@ -2170,8 +2202,8 @@
         <v>24</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
       <c r="F6" s="4"/>
       <c r="H6" s="9"/>
       <c r="I6" s="32"/>
@@ -2200,26 +2232,26 @@
       <c r="O7" s="3"/>
       <c r="P7" s="28"/>
     </row>
-    <row r="8" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="112" t="s">
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
       <c r="P8" s="40" t="s">
         <v>13</v>
       </c>
@@ -2247,10 +2279,10 @@
       <c r="H9" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="94" t="s">
+      <c r="I9" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="94" t="s">
+      <c r="J9" s="93" t="s">
         <v>33</v>
       </c>
       <c r="K9" s="92" t="s">
@@ -2272,18 +2304,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="112" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="115" t="s">
         <v>95</v>
       </c>
       <c r="D10" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="121" t="s">
+      <c r="E10" s="119" t="s">
         <v>137</v>
       </c>
       <c r="F10" s="89" t="s">
@@ -2304,14 +2336,14 @@
       <c r="O10" s="65"/>
       <c r="P10" s="65"/>
     </row>
-    <row r="11" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="118"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="116"/>
       <c r="D11" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="122"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="89" t="s">
         <v>107</v>
       </c>
@@ -2328,18 +2360,18 @@
       <c r="O11" s="65"/>
       <c r="P11" s="65"/>
     </row>
-    <row r="12" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="118"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="116"/>
       <c r="D12" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="122"/>
-      <c r="F12" s="95" t="s">
+      <c r="E12" s="120"/>
+      <c r="F12" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="G12" s="96" t="s">
+      <c r="G12" s="95" t="s">
         <v>114</v>
       </c>
       <c r="H12" s="67" t="s">
@@ -2354,18 +2386,18 @@
       <c r="O12" s="65"/>
       <c r="P12" s="65"/>
     </row>
-    <row r="13" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="118"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="116"/>
       <c r="D13" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="122"/>
-      <c r="F13" s="97" t="s">
+      <c r="E13" s="120"/>
+      <c r="F13" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="96" t="s">
+      <c r="G13" s="95" t="s">
         <v>114</v>
       </c>
       <c r="H13" s="67" t="s">
@@ -2380,21 +2412,23 @@
       <c r="O13" s="65"/>
       <c r="P13" s="65"/>
     </row>
-    <row r="14" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="118"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="116"/>
       <c r="D14" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="122"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="96" t="s">
+      <c r="G14" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="67"/>
+      <c r="H14" s="66" t="s">
+        <v>152</v>
+      </c>
       <c r="I14" s="65"/>
       <c r="J14" s="65"/>
       <c r="K14" s="65"/>
@@ -2406,16 +2440,16 @@
     </row>
     <row r="15" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="118"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="116"/>
       <c r="D15" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="122"/>
-      <c r="F15" s="98" t="s">
+      <c r="E15" s="120"/>
+      <c r="F15" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="96" t="s">
+      <c r="G15" s="95" t="s">
         <v>114</v>
       </c>
       <c r="H15" s="67" t="s">
@@ -2430,18 +2464,18 @@
       <c r="O15" s="65"/>
       <c r="P15" s="66"/>
     </row>
-    <row r="16" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="118"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="116"/>
       <c r="D16" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="122"/>
-      <c r="F16" s="98" t="s">
+      <c r="E16" s="120"/>
+      <c r="F16" s="97" t="s">
         <v>142</v>
       </c>
-      <c r="G16" s="96" t="s">
+      <c r="G16" s="95" t="s">
         <v>114</v>
       </c>
       <c r="H16" s="67" t="s">
@@ -2456,16 +2490,18 @@
       <c r="O16" s="65"/>
       <c r="P16" s="66"/>
     </row>
-    <row r="17" spans="1:16" s="90" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="99" t="s">
+      <c r="B17" s="113"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="79" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="120"/>
+      <c r="F17" s="98" t="s">
         <v>143</v>
       </c>
-      <c r="G17" s="96" t="s">
+      <c r="G17" s="95" t="s">
         <v>114</v>
       </c>
       <c r="H17" s="67" t="s">
@@ -2476,23 +2512,27 @@
       <c r="K17" s="63"/>
       <c r="L17" s="63"/>
       <c r="M17" s="63"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="100"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="99"/>
     </row>
     <row r="18" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="98" t="s">
+      <c r="B18" s="113"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="79" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="120"/>
+      <c r="F18" s="97" t="s">
         <v>144</v>
       </c>
-      <c r="G18" s="96" t="s">
+      <c r="G18" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="H18" s="67"/>
+      <c r="H18" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="I18" s="63"/>
       <c r="J18" s="63"/>
       <c r="K18" s="63"/>
@@ -2504,14 +2544,16 @@
     </row>
     <row r="19" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="54"/>
-      <c r="B19" s="115"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="98" t="s">
+      <c r="B19" s="113"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="79" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" s="120"/>
+      <c r="F19" s="97" t="s">
         <v>145</v>
       </c>
-      <c r="G19" s="96" t="s">
+      <c r="G19" s="95" t="s">
         <v>114</v>
       </c>
       <c r="H19" s="67" t="s">
@@ -2528,14 +2570,16 @@
     </row>
     <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="54"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="101" t="s">
+      <c r="B20" s="114"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="120"/>
+      <c r="F20" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="G20" s="96" t="s">
+      <c r="G20" s="95" t="s">
         <v>114</v>
       </c>
       <c r="H20" s="67" t="s">
@@ -2553,19 +2597,21 @@
     <row r="21" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="54"/>
       <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="102" t="s">
+      <c r="C21" s="116"/>
+      <c r="D21" s="79" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="120"/>
+      <c r="F21" s="101" t="s">
         <v>147</v>
       </c>
-      <c r="G21" s="96" t="s">
+      <c r="G21" s="95" t="s">
         <v>114</v>
       </c>
       <c r="H21" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="I21" s="103"/>
+      <c r="I21" s="102"/>
       <c r="J21" s="62"/>
       <c r="K21" s="62"/>
       <c r="L21" s="63"/>
@@ -2577,13 +2623,15 @@
     <row r="22" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="54"/>
       <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="102" t="s">
+      <c r="C22" s="116"/>
+      <c r="D22" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" s="120"/>
+      <c r="F22" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="G22" s="96" t="s">
+      <c r="G22" s="95" t="s">
         <v>114</v>
       </c>
       <c r="H22" s="61" t="s">
@@ -2601,13 +2649,15 @@
     <row r="23" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
       <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="104" t="s">
+      <c r="C23" s="116"/>
+      <c r="D23" s="79" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="120"/>
+      <c r="F23" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="G23" s="96" t="s">
+      <c r="G23" s="95" t="s">
         <v>114</v>
       </c>
       <c r="H23" s="61" t="s">
@@ -2625,16 +2675,18 @@
     <row r="24" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="54"/>
       <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="104" t="s">
+      <c r="C24" s="117"/>
+      <c r="D24" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="121"/>
+      <c r="F24" s="103" t="s">
         <v>150</v>
       </c>
-      <c r="G24" s="96" t="s">
+      <c r="G24" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="H24" s="105" t="s">
+      <c r="H24" s="122" t="s">
         <v>136</v>
       </c>
       <c r="I24" s="61"/>
@@ -2652,7 +2704,7 @@
       <c r="C25" s="61"/>
       <c r="D25" s="80"/>
       <c r="E25" s="61"/>
-      <c r="F25" s="106"/>
+      <c r="F25" s="104"/>
       <c r="G25" s="61"/>
       <c r="H25" s="61"/>
       <c r="I25" s="61"/>
@@ -2670,7 +2722,7 @@
       <c r="C26" s="61"/>
       <c r="D26" s="80"/>
       <c r="E26" s="61"/>
-      <c r="F26" s="107"/>
+      <c r="F26" s="105"/>
       <c r="G26" s="87"/>
       <c r="H26" s="61"/>
       <c r="I26" s="61"/>
@@ -2707,7 +2759,7 @@
       <c r="D28" s="80"/>
       <c r="E28" s="61"/>
       <c r="F28" s="87"/>
-      <c r="G28" s="108"/>
+      <c r="G28" s="106"/>
       <c r="H28" s="61"/>
       <c r="I28" s="61"/>
       <c r="J28" s="62"/>
@@ -2720,11 +2772,11 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="54"/>
-      <c r="B29" s="109"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="108"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="106"/>
       <c r="G29" s="61"/>
       <c r="H29" s="61"/>
       <c r="I29" s="61"/>
@@ -2742,7 +2794,7 @@
       <c r="C30" s="53"/>
       <c r="D30" s="81"/>
       <c r="E30" s="53"/>
-      <c r="F30" s="111"/>
+      <c r="F30" s="109"/>
       <c r="G30" s="53"/>
       <c r="H30" s="53"/>
       <c r="I30" s="53"/>
@@ -2760,8 +2812,8 @@
       <c r="C31" s="53"/>
       <c r="D31" s="81"/>
       <c r="E31" s="53"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
       <c r="H31" s="53"/>
       <c r="I31" s="53"/>
       <c r="J31" s="54"/>
@@ -2778,8 +2830,8 @@
       <c r="C32" s="53"/>
       <c r="D32" s="81"/>
       <c r="E32" s="53"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="109"/>
       <c r="H32" s="53"/>
       <c r="I32" s="53"/>
       <c r="J32" s="54"/>
@@ -2796,8 +2848,8 @@
       <c r="C33" s="53"/>
       <c r="D33" s="81"/>
       <c r="E33" s="53"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109"/>
       <c r="H33" s="53"/>
       <c r="I33" s="53"/>
       <c r="J33" s="54"/>
@@ -2814,8 +2866,8 @@
       <c r="C34" s="53"/>
       <c r="D34" s="81"/>
       <c r="E34" s="53"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
       <c r="H34" s="53"/>
       <c r="I34" s="53"/>
       <c r="J34" s="54"/>
@@ -2832,8 +2884,8 @@
       <c r="C35" s="53"/>
       <c r="D35" s="81"/>
       <c r="E35" s="53"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
       <c r="H35" s="53"/>
       <c r="I35" s="53"/>
       <c r="J35" s="54"/>
@@ -2850,8 +2902,8 @@
       <c r="C36" s="53"/>
       <c r="D36" s="81"/>
       <c r="E36" s="53"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="111"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="109"/>
       <c r="H36" s="53"/>
       <c r="I36" s="53"/>
       <c r="J36" s="54"/>
@@ -2868,8 +2920,8 @@
       <c r="C37" s="53"/>
       <c r="D37" s="81"/>
       <c r="E37" s="53"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="111"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="109"/>
       <c r="H37" s="53"/>
       <c r="I37" s="53"/>
       <c r="J37" s="54"/>
@@ -2886,7 +2938,7 @@
       <c r="C38" s="53"/>
       <c r="D38" s="81"/>
       <c r="E38" s="53"/>
-      <c r="F38" s="111"/>
+      <c r="F38" s="109"/>
       <c r="G38" s="53"/>
       <c r="H38" s="53"/>
       <c r="I38" s="53"/>
@@ -4575,9 +4627,9 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B10:B20"/>
-    <mergeCell ref="C10:C20"/>
     <mergeCell ref="B8:J8"/>
     <mergeCell ref="E10:E24"/>
+    <mergeCell ref="C10:C24"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestCase/Feed/KG__ERP__IntegrationTestCase__Sales & Distribution__2020-02-23__v1.0.0.xlsx
+++ b/TestCase/Feed/KG__ERP__IntegrationTestCase__Sales & Distribution__2020-02-23__v1.0.0.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="163">
   <si>
     <t>General Guidelines</t>
   </si>
@@ -416,12 +416,6 @@
     <t>Leave Application</t>
   </si>
   <si>
-    <t>1.Test non- privileged user permission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.Employee ID, Line Manager ID will be auto generated.  </t>
-  </si>
-  <si>
     <t>ITC003</t>
   </si>
   <si>
@@ -437,9 +431,6 @@
     <t>ITC007</t>
   </si>
   <si>
-    <t>Total Leave Balance (Earn Leave, Casual Leave)</t>
-  </si>
-  <si>
     <t>Non-privileged users are not allowed to access the page</t>
   </si>
   <si>
@@ -479,42 +470,9 @@
     <t>Feed</t>
   </si>
   <si>
-    <t>Apply Before Stored  it will approve by line manager</t>
-  </si>
-  <si>
-    <t>Amount Should be mentioned for Cash Customer including Product Categorywise.</t>
-  </si>
-  <si>
-    <t>Base Commision must be mentioned for Product.</t>
-  </si>
-  <si>
-    <t>Price must be greater than zero</t>
-  </si>
-  <si>
-    <t>New Product formula will be added the measure of 1000kg quantity wise</t>
-  </si>
-  <si>
-    <t>District Name and District Code</t>
-  </si>
-  <si>
-    <t>Factory Carring Cost, Depo Carring Cost, Marketing Officer Name Should be mentioned for Upazila List</t>
-  </si>
-  <si>
-    <t>Marketing Officers Name, District Should be mentioned</t>
-  </si>
-  <si>
-    <t>Cash Customer or Credit customer should be mentioned</t>
-  </si>
-  <si>
-    <t>A/C Head, Closing Time should be mentioned</t>
-  </si>
-  <si>
     <t>Sales &amp; Inventory Feed</t>
   </si>
   <si>
-    <t>3. RM Purchase Demand</t>
-  </si>
-  <si>
     <t>4. Production Deliver</t>
   </si>
   <si>
@@ -551,12 +509,6 @@
     <t>15. RM Receive for Opening</t>
   </si>
   <si>
-    <t>Product Receive Date, Store Name</t>
-  </si>
-  <si>
-    <t>Requisition Date, Description</t>
-  </si>
-  <si>
     <t>ITC008</t>
   </si>
   <si>
@@ -579,6 +531,60 @@
   </si>
   <si>
     <t>ITC015</t>
+  </si>
+  <si>
+    <t>1. RM Purchase Demand</t>
+  </si>
+  <si>
+    <t>3. Production Requisition</t>
+  </si>
+  <si>
+    <t>2. Purchase Order</t>
+  </si>
+  <si>
+    <t>Demand Date, Product, Quantity, Rate Must be mentioned. Added one by one then Save it</t>
+  </si>
+  <si>
+    <t>PO Date, Qutation, Supplier, Demand No must be mentioned</t>
+  </si>
+  <si>
+    <t>MRP Date, Warehouse, PO No, PO Date, Demand Date, Challan No, Challan Date , Truck No, Driver Name, Uploading Date, Truck Fare, Labour Bill, Received By must be mentioned for Production Requisition</t>
+  </si>
+  <si>
+    <t>Date Mentioned for Search any delivered requisition , Report must be export pdf format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Mentioned for Search any Issued requisition. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Report must be export pdf format. Customer. Order Date, Expected Delivery Date, Sale Person, Product, Quantity must be mentioned</t>
+  </si>
+  <si>
+    <t>Ready to Deliver Quantity must be mentioned , Invoice and Challan must be export different Page and Pdf format</t>
+  </si>
+  <si>
+    <t>Transaction date , Customer Name, Payment Mode, Reference No must be mentioned</t>
+  </si>
+  <si>
+    <t>Product Receive Date, Store Name, Supplier Must be mentioned. Report must be export pdf format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Export Report Total Finish Stock Depot wise </t>
+  </si>
+  <si>
+    <t>View Total Balance and other information Customer wise</t>
+  </si>
+  <si>
+    <t>Return Date, Received By, Invoice No Mention for Sales Return. Retunr Note will be Auto generated</t>
+  </si>
+  <si>
+    <t>Transfer Date, Thansfer from, Transfor To, Truck Fare, Vehicle No, Product No, Transfer Quantity mentioned. Challan no will be Auto generated</t>
+  </si>
+  <si>
+    <t>Date Mentioned for Search any Transfered Stock from Factory to Any Depot , Report must be export pdf format</t>
+  </si>
+  <si>
+    <t>Supplier, Received Date, Store Name must be mentioned. Received date will be Auto Generaated</t>
   </si>
 </sst>
 </file>
@@ -1218,9 +1224,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1282,48 +1285,51 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1978,7 +1984,7 @@
   <dimension ref="A2:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,15 +2035,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="38" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="38" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
       <c r="B7" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="35"/>
-      <c r="D7" s="29"/>
+      <c r="D7" s="29" t="s">
+        <v>104</v>
+      </c>
       <c r="E7" s="29" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>101</v>
@@ -2105,8 +2113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="E23" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2166,10 +2174,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="123"/>
+      <c r="E4" s="112"/>
       <c r="F4" s="4"/>
       <c r="H4" s="9"/>
       <c r="I4" s="32"/>
@@ -2183,7 +2191,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="124" t="s">
+      <c r="D5" s="110" t="s">
         <v>104</v>
       </c>
       <c r="E5" s="9"/>
@@ -2202,8 +2210,8 @@
         <v>24</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
       <c r="F6" s="4"/>
       <c r="H6" s="9"/>
       <c r="I6" s="32"/>
@@ -2234,24 +2242,24 @@
     </row>
     <row r="8" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
-      <c r="B8" s="118" t="s">
+      <c r="B8" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="110" t="s">
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
       <c r="P8" s="40" t="s">
         <v>13</v>
       </c>
@@ -2279,25 +2287,25 @@
       <c r="H9" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="93" t="s">
+      <c r="I9" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="93" t="s">
+      <c r="J9" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="92" t="s">
+      <c r="K9" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="92" t="s">
+      <c r="L9" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="92" t="s">
+      <c r="M9" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="92" t="s">
+      <c r="N9" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="92" t="s">
+      <c r="O9" s="91" t="s">
         <v>38</v>
       </c>
       <c r="P9" s="40" t="s">
@@ -2306,26 +2314,26 @@
     </row>
     <row r="10" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
-      <c r="B10" s="112" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="115" t="s">
+      <c r="B10" s="114" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="121" t="s">
         <v>95</v>
       </c>
       <c r="D10" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="119" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" s="89" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="88" t="s">
-        <v>114</v>
+      <c r="E10" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="93" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="94" t="s">
+        <v>111</v>
       </c>
       <c r="H10" s="67" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="I10" s="65"/>
       <c r="J10" s="65"/>
@@ -2338,18 +2346,18 @@
     </row>
     <row r="11" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
-      <c r="B11" s="113"/>
-      <c r="C11" s="116"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="122"/>
       <c r="D11" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="120"/>
-      <c r="F11" s="89" t="s">
-        <v>107</v>
-      </c>
-      <c r="G11" s="91"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="90"/>
       <c r="H11" s="67" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="I11" s="65"/>
       <c r="J11" s="65"/>
@@ -2360,22 +2368,19 @@
       <c r="O11" s="65"/>
       <c r="P11" s="65"/>
     </row>
-    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="116"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="122"/>
       <c r="D12" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="120"/>
-      <c r="F12" s="94" t="s">
-        <v>138</v>
-      </c>
-      <c r="G12" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="H12" s="67" t="s">
-        <v>128</v>
+        <v>106</v>
+      </c>
+      <c r="E12" s="119"/>
+      <c r="F12" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>150</v>
       </c>
       <c r="I12" s="65"/>
       <c r="J12" s="65"/>
@@ -2388,20 +2393,20 @@
     </row>
     <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="116"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="122"/>
       <c r="D13" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="120"/>
-      <c r="F13" s="96" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" s="95" t="s">
-        <v>114</v>
+        <v>107</v>
+      </c>
+      <c r="E13" s="119"/>
+      <c r="F13" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="94" t="s">
+        <v>111</v>
       </c>
       <c r="H13" s="67" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="I13" s="65"/>
       <c r="J13" s="65"/>
@@ -2414,19 +2419,19 @@
     </row>
     <row r="14" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="116"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="122"/>
       <c r="D14" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="120"/>
+        <v>108</v>
+      </c>
+      <c r="E14" s="119"/>
       <c r="F14" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="G14" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="H14" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="67" t="s">
         <v>152</v>
       </c>
       <c r="I14" s="65"/>
@@ -2438,22 +2443,22 @@
       <c r="O14" s="65"/>
       <c r="P14" s="66"/>
     </row>
-    <row r="15" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
-      <c r="B15" s="113"/>
-      <c r="C15" s="116"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="122"/>
       <c r="D15" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="119"/>
+      <c r="F15" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="120"/>
-      <c r="F15" s="97" t="s">
-        <v>141</v>
-      </c>
-      <c r="G15" s="95" t="s">
-        <v>114</v>
-      </c>
       <c r="H15" s="67" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="I15" s="65"/>
       <c r="J15" s="65"/>
@@ -2464,22 +2469,22 @@
       <c r="O15" s="65"/>
       <c r="P15" s="66"/>
     </row>
-    <row r="16" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="116"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="122"/>
       <c r="D16" s="79" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="120"/>
-      <c r="F16" s="97" t="s">
-        <v>142</v>
-      </c>
-      <c r="G16" s="95" t="s">
-        <v>114</v>
+        <v>110</v>
+      </c>
+      <c r="E16" s="119"/>
+      <c r="F16" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="94" t="s">
+        <v>111</v>
       </c>
       <c r="H16" s="67" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="I16" s="65"/>
       <c r="J16" s="65"/>
@@ -2490,48 +2495,48 @@
       <c r="O16" s="65"/>
       <c r="P16" s="66"/>
     </row>
-    <row r="17" spans="1:16" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="89" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="116"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="122"/>
       <c r="D17" s="79" t="s">
-        <v>153</v>
-      </c>
-      <c r="E17" s="120"/>
-      <c r="F17" s="98" t="s">
-        <v>143</v>
-      </c>
-      <c r="G17" s="95" t="s">
-        <v>114</v>
+        <v>137</v>
+      </c>
+      <c r="E17" s="119"/>
+      <c r="F17" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="94" t="s">
+        <v>111</v>
       </c>
       <c r="H17" s="67" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="I17" s="63"/>
       <c r="J17" s="63"/>
       <c r="K17" s="63"/>
       <c r="L17" s="63"/>
       <c r="M17" s="63"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
     </row>
     <row r="18" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="116"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="122"/>
       <c r="D18" s="79" t="s">
-        <v>154</v>
-      </c>
-      <c r="E18" s="120"/>
-      <c r="F18" s="97" t="s">
-        <v>144</v>
-      </c>
-      <c r="G18" s="95" t="s">
-        <v>114</v>
+        <v>138</v>
+      </c>
+      <c r="E18" s="119"/>
+      <c r="F18" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="94" t="s">
+        <v>111</v>
       </c>
       <c r="H18" s="67" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I18" s="63"/>
       <c r="J18" s="63"/>
@@ -2544,20 +2549,20 @@
     </row>
     <row r="19" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="54"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="116"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="122"/>
       <c r="D19" s="79" t="s">
-        <v>155</v>
-      </c>
-      <c r="E19" s="120"/>
-      <c r="F19" s="97" t="s">
-        <v>145</v>
-      </c>
-      <c r="G19" s="95" t="s">
-        <v>114</v>
+        <v>139</v>
+      </c>
+      <c r="E19" s="119"/>
+      <c r="F19" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="94" t="s">
+        <v>111</v>
       </c>
       <c r="H19" s="67" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="I19" s="63"/>
       <c r="J19" s="63"/>
@@ -2570,20 +2575,20 @@
     </row>
     <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="54"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="116"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="122"/>
       <c r="D20" s="79" t="s">
-        <v>156</v>
-      </c>
-      <c r="E20" s="120"/>
-      <c r="F20" s="100" t="s">
-        <v>146</v>
-      </c>
-      <c r="G20" s="95" t="s">
-        <v>114</v>
+        <v>140</v>
+      </c>
+      <c r="E20" s="119"/>
+      <c r="F20" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="94" t="s">
+        <v>111</v>
       </c>
       <c r="H20" s="67" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="I20" s="63"/>
       <c r="J20" s="64"/>
@@ -2597,21 +2602,21 @@
     <row r="21" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="54"/>
       <c r="B21" s="61"/>
-      <c r="C21" s="116"/>
+      <c r="C21" s="122"/>
       <c r="D21" s="79" t="s">
-        <v>157</v>
-      </c>
-      <c r="E21" s="120"/>
-      <c r="F21" s="101" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" s="95" t="s">
-        <v>114</v>
+        <v>141</v>
+      </c>
+      <c r="E21" s="119"/>
+      <c r="F21" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="94" t="s">
+        <v>111</v>
       </c>
       <c r="H21" s="87" t="s">
-        <v>133</v>
-      </c>
-      <c r="I21" s="102"/>
+        <v>159</v>
+      </c>
+      <c r="I21" s="101"/>
       <c r="J21" s="62"/>
       <c r="K21" s="62"/>
       <c r="L21" s="63"/>
@@ -2620,22 +2625,22 @@
       <c r="O21" s="63"/>
       <c r="P21" s="64"/>
     </row>
-    <row r="22" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="54"/>
       <c r="B22" s="61"/>
-      <c r="C22" s="116"/>
+      <c r="C22" s="122"/>
       <c r="D22" s="79" t="s">
-        <v>158</v>
-      </c>
-      <c r="E22" s="120"/>
-      <c r="F22" s="101" t="s">
-        <v>148</v>
-      </c>
-      <c r="G22" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="H22" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="119"/>
+      <c r="F22" s="100" t="s">
         <v>134</v>
+      </c>
+      <c r="G22" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="124" t="s">
+        <v>160</v>
       </c>
       <c r="I22" s="61"/>
       <c r="J22" s="62"/>
@@ -2649,19 +2654,19 @@
     <row r="23" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
       <c r="B23" s="61"/>
-      <c r="C23" s="116"/>
+      <c r="C23" s="122"/>
       <c r="D23" s="79" t="s">
-        <v>159</v>
-      </c>
-      <c r="E23" s="120"/>
-      <c r="F23" s="103" t="s">
-        <v>149</v>
-      </c>
-      <c r="G23" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="H23" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="119"/>
+      <c r="F23" s="102" t="s">
         <v>135</v>
+      </c>
+      <c r="G23" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="67" t="s">
+        <v>161</v>
       </c>
       <c r="I23" s="61"/>
       <c r="J23" s="62"/>
@@ -2675,19 +2680,19 @@
     <row r="24" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="54"/>
       <c r="B24" s="61"/>
-      <c r="C24" s="117"/>
+      <c r="C24" s="123"/>
       <c r="D24" s="79" t="s">
-        <v>160</v>
-      </c>
-      <c r="E24" s="121"/>
-      <c r="F24" s="103" t="s">
-        <v>150</v>
-      </c>
-      <c r="G24" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="H24" s="122" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="120"/>
+      <c r="F24" s="102" t="s">
         <v>136</v>
+      </c>
+      <c r="G24" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="109" t="s">
+        <v>162</v>
       </c>
       <c r="I24" s="61"/>
       <c r="J24" s="62"/>
@@ -2704,7 +2709,7 @@
       <c r="C25" s="61"/>
       <c r="D25" s="80"/>
       <c r="E25" s="61"/>
-      <c r="F25" s="104"/>
+      <c r="F25" s="103"/>
       <c r="G25" s="61"/>
       <c r="H25" s="61"/>
       <c r="I25" s="61"/>
@@ -2722,7 +2727,7 @@
       <c r="C26" s="61"/>
       <c r="D26" s="80"/>
       <c r="E26" s="61"/>
-      <c r="F26" s="105"/>
+      <c r="F26" s="104"/>
       <c r="G26" s="87"/>
       <c r="H26" s="61"/>
       <c r="I26" s="61"/>
@@ -2759,7 +2764,7 @@
       <c r="D28" s="80"/>
       <c r="E28" s="61"/>
       <c r="F28" s="87"/>
-      <c r="G28" s="106"/>
+      <c r="G28" s="105"/>
       <c r="H28" s="61"/>
       <c r="I28" s="61"/>
       <c r="J28" s="62"/>
@@ -2772,11 +2777,11 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="54"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="105"/>
       <c r="G29" s="61"/>
       <c r="H29" s="61"/>
       <c r="I29" s="61"/>
@@ -2794,7 +2799,7 @@
       <c r="C30" s="53"/>
       <c r="D30" s="81"/>
       <c r="E30" s="53"/>
-      <c r="F30" s="109"/>
+      <c r="F30" s="108"/>
       <c r="G30" s="53"/>
       <c r="H30" s="53"/>
       <c r="I30" s="53"/>
@@ -2812,8 +2817,8 @@
       <c r="C31" s="53"/>
       <c r="D31" s="81"/>
       <c r="E31" s="53"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="108"/>
       <c r="H31" s="53"/>
       <c r="I31" s="53"/>
       <c r="J31" s="54"/>
@@ -2830,8 +2835,8 @@
       <c r="C32" s="53"/>
       <c r="D32" s="81"/>
       <c r="E32" s="53"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="109"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
       <c r="H32" s="53"/>
       <c r="I32" s="53"/>
       <c r="J32" s="54"/>
@@ -2848,8 +2853,8 @@
       <c r="C33" s="53"/>
       <c r="D33" s="81"/>
       <c r="E33" s="53"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
       <c r="H33" s="53"/>
       <c r="I33" s="53"/>
       <c r="J33" s="54"/>
@@ -2866,8 +2871,8 @@
       <c r="C34" s="53"/>
       <c r="D34" s="81"/>
       <c r="E34" s="53"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
       <c r="H34" s="53"/>
       <c r="I34" s="53"/>
       <c r="J34" s="54"/>
@@ -2884,8 +2889,8 @@
       <c r="C35" s="53"/>
       <c r="D35" s="81"/>
       <c r="E35" s="53"/>
-      <c r="F35" s="109"/>
-      <c r="G35" s="109"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="108"/>
       <c r="H35" s="53"/>
       <c r="I35" s="53"/>
       <c r="J35" s="54"/>
@@ -2902,8 +2907,8 @@
       <c r="C36" s="53"/>
       <c r="D36" s="81"/>
       <c r="E36" s="53"/>
-      <c r="F36" s="109"/>
-      <c r="G36" s="109"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
       <c r="H36" s="53"/>
       <c r="I36" s="53"/>
       <c r="J36" s="54"/>
@@ -2920,8 +2925,8 @@
       <c r="C37" s="53"/>
       <c r="D37" s="81"/>
       <c r="E37" s="53"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="109"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="108"/>
       <c r="H37" s="53"/>
       <c r="I37" s="53"/>
       <c r="J37" s="54"/>
@@ -2938,7 +2943,7 @@
       <c r="C38" s="53"/>
       <c r="D38" s="81"/>
       <c r="E38" s="53"/>
-      <c r="F38" s="109"/>
+      <c r="F38" s="108"/>
       <c r="G38" s="53"/>
       <c r="H38" s="53"/>
       <c r="I38" s="53"/>
@@ -4789,48 +4794,48 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="85" t="s">
         <v>115</v>
-      </c>
-      <c r="G1" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="84" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" s="85" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="2:9" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="59" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E3" s="59" t="s">
         <v>105</v>
       </c>
       <c r="G3" s="86" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
         <v>105</v>
@@ -4838,7 +4843,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
